--- a/hashtag/hashtag.xlsx
+++ b/hashtag/hashtag.xlsx
@@ -478,1020 +478,1020 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>7051292756953648390</t>
+          <t>7037602320242281734</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>amo viver 😍🔫 #attackontitan                          ib: @gusthavoll</t>
+          <t>ASMR tapete Naruto 🍜 #asmr #tufting #naruto #fyp</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10500</v>
+        <v>12900000</v>
       </c>
       <c r="D2" t="n">
-        <v>192</v>
+        <v>155300</v>
       </c>
       <c r="E2" t="n">
-        <v>190</v>
+        <v>59600</v>
       </c>
       <c r="F2" t="n">
-        <v>61500</v>
+        <v>133300000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2022-01-09 19:37:12</t>
+          <t>2021-12-03 22:11:19</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@otaviobunny/video/7051292756953648390</t>
+          <t>https://www.tiktok.com/@billwave/video/7037602320242281734</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7050167645332720902</t>
+          <t>6983483484429946118</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3 vezes que Hollywood roubou os animes #ANIME #filme #reileao #kimba #paprika #inception #origem #desenhoanimado #desenho #cinema #pravoce #animebr #f</t>
+          <t>still icing my cheek 😀 #anime #naruto  #pain</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14000</v>
+        <v>9400000</v>
       </c>
       <c r="D3" t="n">
-        <v>121</v>
+        <v>236900</v>
       </c>
       <c r="E3" t="n">
-        <v>160</v>
+        <v>66100</v>
       </c>
       <c r="F3" t="n">
-        <v>168300</v>
+        <v>51000000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2022-01-06 18:51:12</t>
+          <t>2021-07-11 02:02:39</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@1fabiogomes/video/7050167645332720902</t>
+          <t>https://www.tiktok.com/@hudanoor07/video/6983483484429946118</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>7052814839030238470</t>
+          <t>7016080102412782849</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Responder @luccasouzaa  E ai? Qual o proximo desafio? #otaku #anime #naruto</t>
+          <t>Reply to @itskingchris  Deal 👁💋👁 #ramen #naruto #anime</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>112500</v>
+        <v>7600000</v>
       </c>
       <c r="D4" t="n">
-        <v>225</v>
+        <v>31400</v>
       </c>
       <c r="E4" t="n">
-        <v>808</v>
+        <v>44500</v>
       </c>
       <c r="F4" t="n">
-        <v>810500</v>
+        <v>46800000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2022-01-13 22:03:39</t>
+          <t>2021-10-06 22:14:08</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@josepnobre/video/7052814839030238470</t>
+          <t>https://www.tiktok.com/@bayashi.tiktok/video/7016080102412782849</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>7054736018544528645</t>
+          <t>6934418306321468677</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Responder @malu_uchiha08 Só coisa boa! Me conta tu curte animes? #animes #DicasDeSeries #otaku #animesnetflix</t>
+          <t>The Infinite Swaguyomi #anime #naruto #itachi #swag #manga #fy</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3607</v>
+        <v>7400000</v>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>204100</v>
       </c>
       <c r="E5" t="n">
-        <v>159</v>
+        <v>55600</v>
       </c>
       <c r="F5" t="n">
-        <v>76700</v>
+        <v>49700000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2022-01-19 02:18:49</t>
+          <t>2021-02-28 20:44:49</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jaoque_queline/video/7054736018544528645</t>
+          <t>https://www.tiktok.com/@itskingchris/video/6934418306321468677</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>7050551892631457030</t>
+          <t>6911027243837934849</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Animes Novos 2022 #ANIME #otakubrasil #animesbrasil</t>
+          <t>⚠️FLASH WARNING⚠️ this trend is cool af😁 #weeb #anime #ryuk #deathnote #naruto #itachi #secretweebsociety #otaku</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10200</v>
+        <v>7200000</v>
       </c>
       <c r="D6" t="n">
-        <v>98</v>
+        <v>226400</v>
       </c>
       <c r="E6" t="n">
-        <v>132</v>
+        <v>96600</v>
       </c>
       <c r="F6" t="n">
-        <v>124600</v>
+        <v>38700000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2022-01-07 19:42:16</t>
+          <t>2020-12-27 19:55:24</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@queergeek/video/7050551892631457030</t>
+          <t>https://www.tiktok.com/@yaboy.p/video/6911027243837934849</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7052092221100805382</t>
+          <t>7047037789564718338</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>E ai? Recomendariam esse anime? #otaku #anime #naruto</t>
+          <t>BanKaiiii #bleach #naruto #onepiece #dragonball #luffy #goku #ichigo #chifasquad</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7080</v>
+        <v>6900000</v>
       </c>
       <c r="D7" t="n">
-        <v>39</v>
+        <v>140500</v>
       </c>
       <c r="E7" t="n">
-        <v>165</v>
+        <v>49900</v>
       </c>
       <c r="F7" t="n">
-        <v>87700</v>
+        <v>50300000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2022-01-11 23:19:32</t>
+          <t>2021-12-29 08:25:45</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@josepnobre/video/7052092221100805382</t>
+          <t>https://www.tiktok.com/@panteravfx/video/7047037789564718338</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7050116119939550470</t>
+          <t>6930323674180357378</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Não sei vocês, mas pudim é a minha sobremesa terráquea pitoresca preferida. 🍮 #anime #dragonballz</t>
+          <t>When you meet up with the squad in Konoha! #animation #art #snl #yeet #naruto #anime #animememes #memes #animationmeme #meme</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>33700</v>
+        <v>6900000</v>
       </c>
       <c r="D8" t="n">
-        <v>452</v>
+        <v>1400000</v>
       </c>
       <c r="E8" t="n">
-        <v>633</v>
+        <v>98800</v>
       </c>
       <c r="F8" t="n">
-        <v>393900</v>
+        <v>43100000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2022-01-06 15:31:15</t>
+          <t>2021-02-17 19:55:28</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@hbomaxbr/video/7050116119939550470</t>
+          <t>https://www.tiktok.com/@jedd.i/video/6930323674180357378</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7050557568824970501</t>
+          <t>7016039479731408134</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rebelde em mangá? Foi um surto? #rebelde #rbd #rebeldes #anime #manga #otaku</t>
+          <t>And anotha Rinnegan👁 #rinnegan #naruto #prostheticeye #eye #rinneganeye #anime #foryou #foryoupage #fypシ #ocularist #custom</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1471</v>
+        <v>6800000</v>
       </c>
       <c r="D9" t="n">
-        <v>28</v>
+        <v>72800</v>
       </c>
       <c r="E9" t="n">
-        <v>31</v>
+        <v>57000</v>
       </c>
       <c r="F9" t="n">
-        <v>39100</v>
+        <v>43600000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2022-01-07 20:04:18</t>
+          <t>2021-10-06 19:36:29</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@guilhermediaz/video/7050557568824970501</t>
+          <t>https://www.tiktok.com/@zachtheocularist/video/7016039479731408134</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7052304589843926278</t>
+          <t>7035635527068011777</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Meta de 2022: Completar a coleção de Mangás. #estantevirtual #mangas #anime #metas #onepiece #demonslayer #thesevendealysins #booktokbrasil</t>
+          <t>#anime #tokyoghoul #naruto #myheroacademia #onepiece #demonslayer #haikyuu #onisqd</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>484</v>
+        <v>6700000</v>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>244400</v>
       </c>
       <c r="E10" t="n">
-        <v>17</v>
+        <v>50400</v>
       </c>
       <c r="F10" t="n">
-        <v>15000</v>
+        <v>39200000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2022-01-12 13:03:38</t>
+          <t>2021-11-28 14:59:09</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@estantevirtual/video/7052304589843926278</t>
+          <t>https://www.tiktok.com/@nelyrall/video/7035635527068011777</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>7051985847268281606</t>
+          <t>6906498608615460097</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Super recomendo #bananafish #ashlynx #eijiokumura #anime #react @primevideobr</t>
+          <t>В какой клан Наруто вы бы хотели попасть? 😏 #yolohouse #наруто #naruto</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4246</v>
+        <v>6100000</v>
       </c>
       <c r="D11" t="n">
-        <v>21</v>
+        <v>129500</v>
       </c>
       <c r="E11" t="n">
-        <v>115</v>
+        <v>108100</v>
       </c>
       <c r="F11" t="n">
-        <v>38600</v>
+        <v>75600000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2022-01-11 16:26:45</t>
+          <t>2020-12-15 15:01:59</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@didiforgod/video/7051985847268281606</t>
+          <t>https://www.tiktok.com/@the.yolohouse/video/6906498608615460097</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>7050615406993689861</t>
+          <t>6998958530946436358</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>“Os mais afetados... não têm salvação!" 🤯 #MyHeroAcademia: Missão Mundial de Heróis - Assista HOJE somente nos cinemas. #Anime</t>
+          <t>What should be the next challenge? 🤔 #anime #dragonball #onepunchman #fyp #naruto</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>13400</v>
+        <v>6100000</v>
       </c>
       <c r="D12" t="n">
-        <v>133</v>
+        <v>45400</v>
       </c>
       <c r="E12" t="n">
-        <v>166</v>
+        <v>58000</v>
       </c>
       <c r="F12" t="n">
-        <v>2900000</v>
+        <v>62600000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2022-01-09 23:00:01</t>
+          <t>2021-08-21 18:53:40</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@sonypicturesbr/video/7050615406993689861</t>
+          <t>https://www.tiktok.com/@daveardito/video/6998958530946436358</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7020892523644210438</t>
+          <t>6910080001769475334</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cauã ou Kakashi?? 😫                        (@cauamacedo  @leonardo_rubens)  #wizzplace2 #anime #kakashi #otaku</t>
+          <t>Thank you so much for 37K you all are amazing💜 Merry Christmas! | Reference: @shinsama422 #naruto #sasuke #kakashi #anime #dance #animation</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>923400</v>
+        <v>5600000</v>
       </c>
       <c r="D13" t="n">
-        <v>2204</v>
+        <v>672300</v>
       </c>
       <c r="E13" t="n">
-        <v>10100</v>
+        <v>47000</v>
       </c>
       <c r="F13" t="n">
-        <v>12200000</v>
+        <v>39500000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2021-10-19 21:28:47</t>
+          <t>2020-12-25 06:39:59</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@palomasouza.s/video/7020892523644210438</t>
+          <t>https://www.tiktok.com/@naidame/video/6910080001769475334</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>7051796441714445573</t>
+          <t>7035759078991269125</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Responder @fredey27 E ai? Qual o proximo desafio? #otaku #anime #demonslayer #attaquedestitans</t>
+          <t>Serious booger flick 😂👌🏼 @pia_thepanda #saitama #mha #naruto #liveaction #anime</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>13100</v>
+        <v>5500000</v>
       </c>
       <c r="D14" t="n">
-        <v>36</v>
+        <v>38300</v>
       </c>
       <c r="E14" t="n">
-        <v>153</v>
+        <v>28900</v>
       </c>
       <c r="F14" t="n">
-        <v>145300</v>
+        <v>35600000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2022-01-11 04:11:47</t>
+          <t>2021-11-28 22:58:36</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@josepnobre/video/7051796441714445573</t>
+          <t>https://www.tiktok.com/@daveardito/video/7035759078991269125</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>7051950369483623686</t>
+          <t>6893969569342311686</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>E pelo jeito foram ótimas inspirações, né?? #eren #erenjaeger #attackontitans #shingekinokyojin #manga #anime #animes #otaku #otakus</t>
+          <t>Kakashi - Ninja Mission 1 #kakashi #kakashihatake #kakashicosplay #naruto #narutoshippuden #anime #1000yearsofdeath #funny #animeconvention #dpiddy</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>9458</v>
+        <v>5400000</v>
       </c>
       <c r="D15" t="n">
-        <v>23</v>
+        <v>159400</v>
       </c>
       <c r="E15" t="n">
-        <v>39</v>
+        <v>65500</v>
       </c>
       <c r="F15" t="n">
-        <v>80100</v>
+        <v>42900000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2022-01-11 14:09:05</t>
+          <t>2020-11-11 20:43:26</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@fernandatavassi/video/7051950369483623686</t>
+          <t>https://www.tiktok.com/@dpiddy/video/6893969569342311686</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>7051648229380803845</t>
+          <t>6923206935324019973</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Relembrando os pontos principais de Atrack on Titan. Parte 1 #anime #otaku #shingekinokyojin</t>
+          <t>Kunai to @bagot_man #fyp #caveman #naruto #knife #bladesmith #survival #bushcraft #whyimsingle #diy #minecraft #flintknapping #craft #knifeskills</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>55500</v>
+        <v>5400000</v>
       </c>
       <c r="D16" t="n">
-        <v>768</v>
+        <v>48800</v>
       </c>
       <c r="E16" t="n">
-        <v>860</v>
+        <v>97000</v>
       </c>
       <c r="F16" t="n">
-        <v>327300</v>
+        <v>33900000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2022-01-10 18:36:37</t>
+          <t>2021-01-29 15:39:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@_jonstar_/video/7051648229380803845</t>
+          <t>https://www.tiktok.com/@donnydust/video/6923206935324019973</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>7050473764487810310</t>
+          <t>6994968586007727365</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Tatakae? #anime #fyp #fypシ #otaku #tiktokagebr #shingekinokyojin</t>
+          <t>Kakashi vs Pain #anime #naruto #kakashi #akatsuki #manga #fy</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>19900</v>
+        <v>5300000</v>
       </c>
       <c r="D17" t="n">
-        <v>511</v>
+        <v>74200</v>
       </c>
       <c r="E17" t="n">
-        <v>1060</v>
+        <v>32000</v>
       </c>
       <c r="F17" t="n">
-        <v>137200</v>
+        <v>33800000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2022-01-07 14:39:06</t>
+          <t>2021-08-11 00:50:40</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@saykennohiro/video/7050473764487810310</t>
+          <t>https://www.tiktok.com/@itskingchris/video/6994968586007727365</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>7050123238394973445</t>
+          <t>6993416090185436422</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>A última foi a pior pra mim! #anime #otaku</t>
+          <t>#foryou #foryoupage #naruto #jutsu #ninja #otaku #anime #foryou #foryoupage</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>11600</v>
+        <v>5300000</v>
       </c>
       <c r="D18" t="n">
-        <v>118</v>
+        <v>119200</v>
       </c>
       <c r="E18" t="n">
-        <v>348</v>
+        <v>119900</v>
       </c>
       <c r="F18" t="n">
-        <v>184800</v>
+        <v>23800000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2022-01-06 15:58:52</t>
+          <t>2021-08-06 20:26:10</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@callmejeh/video/7050123238394973445</t>
+          <t>https://www.tiktok.com/@ezutsuni.kun/video/6993416090185436422</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>7050153840519220486</t>
+          <t>6935966694280121602</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Qual das versões você prefere?? #demonslayer #kimetsunoyaiba #manga #anime #animes #otaku #otakus</t>
+          <t>not bad😼 #cucokcucucimory #TerimaKasihPahlawanHebatku #otaku #wibu #anime #foryoupage #fyp #fypシ #fy #zoro #tanjiro #killua #naruto #genos #levi #aot</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>15500</v>
+        <v>5200000</v>
       </c>
       <c r="D19" t="n">
-        <v>58</v>
+        <v>216700</v>
       </c>
       <c r="E19" t="n">
-        <v>122</v>
+        <v>44000</v>
       </c>
       <c r="F19" t="n">
-        <v>155800</v>
+        <v>34700000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2022-01-06 17:57:37</t>
+          <t>2021-03-05 00:53:17</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@fernandatavassi/video/7050153840519220486</t>
+          <t>https://www.tiktok.com/@yaagamiii/video/6935966694280121602</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>7050559936832474373</t>
+          <t>6980050864614558982</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>“Individualidades não são uma bênção para a humanidade, mas o começo do fim.” #MyHeroAcademia: Missão Mundial de Heróis - HOJE nos cinemas #Anime</t>
+          <t>💔 #kawaki #boruto #animeedit #anime #naruto</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>28000</v>
+        <v>5000000</v>
       </c>
       <c r="D20" t="n">
-        <v>745</v>
+        <v>10700</v>
       </c>
       <c r="E20" t="n">
-        <v>457</v>
+        <v>15600</v>
       </c>
       <c r="F20" t="n">
-        <v>262700</v>
+        <v>42200000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2022-01-07 20:13:29</t>
+          <t>2021-07-01 20:02:19</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@sonypicturesbr/video/7050559936832474373</t>
+          <t>https://www.tiktok.com/@anime.tokyo.7/video/6980050864614558982</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>7026081505139068166</t>
+          <t>6966103387238616325</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>#anime</t>
+          <t>#tobi #naruto #minato #manga</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>302100</v>
+        <v>5000000</v>
       </c>
       <c r="D21" t="n">
-        <v>712</v>
+        <v>61200</v>
       </c>
       <c r="E21" t="n">
-        <v>1943</v>
+        <v>55300</v>
       </c>
       <c r="F21" t="n">
-        <v>7000000</v>
+        <v>30500000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2021-11-02 21:04:40</t>
+          <t>2021-05-25 05:59:06</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@edmardanthony/video/7026081505139068166</t>
+          <t>https://www.tiktok.com/@11avril/video/6966103387238616325</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>7030922226295753989</t>
+          <t>6936304115249057030</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>OS 11 TITÃS MAIS FORTES DE ATTACK ON TITAN 4 #attackontitans #attackontitan #shingekinokyojin #anime #otaku #erenjaeger</t>
+          <t>Reply to @protocattachy #fyp #caveman #naruto #katana #survival #bushcraft #sword #woodworking #foryoupage #anime #cosplay #diy #makeit #yeah #makers</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>139000</v>
+        <v>4900000</v>
       </c>
       <c r="D22" t="n">
-        <v>257</v>
+        <v>24500</v>
       </c>
       <c r="E22" t="n">
-        <v>1098</v>
+        <v>82100</v>
       </c>
       <c r="F22" t="n">
-        <v>1500000</v>
+        <v>28000000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2021-11-15 22:09:08</t>
+          <t>2021-03-05 22:42:35</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@fellipe.lombardi/video/7030922226295753989</t>
+          <t>https://www.tiktok.com/@donnydust/video/6936304115249057030</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>7023109444829547781</t>
+          <t>6932877023878614277</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>p0ste1 f0to detalhada no 1nst4  @palomasouza.s 🤓 (Make @jahdeborg) #attackontitan #anime  #wizzplace2</t>
+          <t>untraditional urn with an unexpected message #clay #ceramics #pottery #art #clayart #clayartist #handmade #naruto #urn</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>175700</v>
+        <v>4900000</v>
       </c>
       <c r="D23" t="n">
-        <v>545</v>
+        <v>40600</v>
       </c>
       <c r="E23" t="n">
-        <v>1626</v>
+        <v>19100</v>
       </c>
       <c r="F23" t="n">
-        <v>4500000</v>
+        <v>22000000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2021-10-25 20:51:33</t>
+          <t>2021-02-24 17:03:52</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@palomasouza.s/video/7023109444829547781</t>
+          <t>https://www.tiktok.com/@ceramicnoodles/video/6932877023878614277</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>7050858322047667461</t>
+          <t>7006051310545980673</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Um tapinha não dói nada #anime #buckybarnes #sebastianstan</t>
+          <t>Добейте 100к💜 #mma #ufc #edit #anime #naruto #israeladesanya</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>13200</v>
+        <v>4600000</v>
       </c>
       <c r="D24" t="n">
-        <v>9</v>
+        <v>76400</v>
       </c>
       <c r="E24" t="n">
-        <v>39</v>
+        <v>17300</v>
       </c>
       <c r="F24" t="n">
-        <v>40200</v>
+        <v>56100000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2022-01-08 15:31:23</t>
+          <t>2021-09-09 21:37:18</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@mari.fitzroy/video/7050858322047667461</t>
+          <t>https://www.tiktok.com/@ultramma/video/7006051310545980673</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>7048976794841599237</t>
+          <t>6976873866937339138</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Continuação de Animes esse mês! #crunchyroll @crunchyroll_pt  #boruto #onepiece #demonslayer #otaku</t>
+          <t>What #Naruto character should I create next?</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5338</v>
+        <v>4400000</v>
       </c>
       <c r="D25" t="n">
-        <v>38</v>
+        <v>33400</v>
       </c>
       <c r="E25" t="n">
-        <v>98</v>
+        <v>24600</v>
       </c>
       <c r="F25" t="n">
-        <v>105000</v>
+        <v>34600000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2022-01-03 13:50:06</t>
+          <t>2021-06-23 06:34:03</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@viajandonosofa/video/7048976794841599237</t>
+          <t>https://www.tiktok.com/@salavat.fidai/video/6976873866937339138</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>7051325614699187462</t>
+          <t>6994887394323401990</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Cade os cosplayer de Attack on Titan para duetar ??? #cosplay #anime #aot #aotseason4 #attackontitan</t>
+          <t>#anime #naruto #edit #jutsusquad #fyp</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4612</v>
+        <v>4300000</v>
       </c>
       <c r="D26" t="n">
-        <v>18</v>
+        <v>210500</v>
       </c>
       <c r="E26" t="n">
-        <v>42</v>
+        <v>28600</v>
       </c>
       <c r="F26" t="n">
-        <v>51100</v>
+        <v>22800000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2022-01-09 21:44:42</t>
+          <t>2021-08-10 19:35:35</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@mf.cruvinel/video/7051325614699187462</t>
+          <t>https://www.tiktok.com/@ncsz.one/video/6994887394323401990</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>7050117327236369669</t>
+          <t>7002430146313489669</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Regra número 1 para andar de bicicleta: fique de olho na estrada! #anime #yashahime</t>
+          <t>Testing our stickers on a flask 🧐 part 2 in a couple of days 🙌🏻 #naruto #animestickers #animetiktok #narutoshippuden #narutouzumaki #otaku #fypシ</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5170</v>
+        <v>4300000</v>
       </c>
       <c r="D27" t="n">
-        <v>50</v>
+        <v>45100</v>
       </c>
       <c r="E27" t="n">
-        <v>52</v>
+        <v>27700</v>
       </c>
       <c r="F27" t="n">
-        <v>114900</v>
+        <v>45000000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2022-01-07 12:00:00</t>
+          <t>2021-08-31 03:25:20</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@hbomaxbr/video/7050117327236369669</t>
+          <t>https://www.tiktok.com/@ichigoprints/video/7002430146313489669</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>7050497259464576262</t>
+          <t>6886188860750023941</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Responder @marcos1244422  Vocês gostam dele? #ANIME #luffy #onepiece #autista #diy</t>
+          <t>u need to watch this anime :o #fyp #foryoupage #foryou #anime #animes #jujutsukaisen #jujutsukaisenedit #weeb#otaku#animeedit#epic#naruto#leviackerman</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>34100</v>
+        <v>4300000</v>
       </c>
       <c r="D28" t="n">
-        <v>365</v>
+        <v>439000</v>
       </c>
       <c r="E28" t="n">
-        <v>2780</v>
+        <v>61600</v>
       </c>
       <c r="F28" t="n">
-        <v>308300</v>
+        <v>30000000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2022-01-07 16:10:16</t>
+          <t>2020-10-21 21:30:23</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@giovannasousacariry/video/7050497259464576262</t>
+          <t>https://www.tiktok.com/@ysenpaii/video/6886188860750023941</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>7050554451102354694</t>
+          <t>6845263743794859269</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Quem aqui assistiu? #deathnote #anime #manga #deathnoteコスプレ #cinema #dicasdefilmes #netflix</t>
+          <t>Who's the most badass anime character? ⚡️ #anime #animechallenge #animeedit #animethings #kakashi #kakashicosplay #naruto #haikyuu</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5976</v>
+        <v>4200000</v>
       </c>
       <c r="D29" t="n">
-        <v>16</v>
+        <v>78000</v>
       </c>
       <c r="E29" t="n">
-        <v>103</v>
+        <v>31900</v>
       </c>
       <c r="F29" t="n">
-        <v>65300</v>
+        <v>47300000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2022-01-07 19:52:12</t>
+          <t>2020-07-03 14:39:26</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@guilhermediaz/video/7050554451102354694</t>
+          <t>https://www.tiktok.com/@bera_nanuka/video/6845263743794859269</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>7024873028794322182</t>
+          <t>7032768346013601029</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ATTACK ON TITAN NO MINECRAFT!! PT.2  #attackontitan #levi #shingekinokyojin</t>
+          <t>You can’t outrun Kushina’s pan @mimisemaan  🍳 😂 #minato #kushina #naruto #liveaction #anime</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>206100</v>
+        <v>4200000</v>
       </c>
       <c r="D30" t="n">
-        <v>1689</v>
+        <v>26600</v>
       </c>
       <c r="E30" t="n">
-        <v>2661</v>
+        <v>14400</v>
       </c>
       <c r="F30" t="n">
-        <v>1500000</v>
+        <v>25300000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2021-10-30 14:55:10</t>
+          <t>2021-11-20 21:33:01</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@menz_ofc/video/7024873028794322182</t>
+          <t>https://www.tiktok.com/@daveardito/video/7032768346013601029</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>7039799198081993990</t>
+          <t>6964109163626646790</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>#otaku #samuraixanime #samuraix #tiktoknotícias #otakus</t>
+          <t>Spicy Ramen 🌶🍥🍜, Danke für 1,5 Millionen 🙏 #asmr #spicy #japanese #ramen #naruto #fyp #food #tiktokfood</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6540</v>
+        <v>4100000</v>
       </c>
       <c r="D31" t="n">
-        <v>360</v>
+        <v>86100</v>
       </c>
       <c r="E31" t="n">
-        <v>108</v>
+        <v>37000</v>
       </c>
       <c r="F31" t="n">
-        <v>214600</v>
+        <v>22200000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2021-12-09 20:16:20</t>
+          <t>2021-05-19 21:00:22</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@cineclick/video/7039799198081993990</t>
+          <t>https://www.tiktok.com/@foodkagechris/video/6964109163626646790</t>
         </is>
       </c>
     </row>

--- a/hashtag/hashtag.xlsx
+++ b/hashtag/hashtag.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,1027 +471,4922 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>video</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>author</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>usuario</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>fecha_f</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>7037602320242281734</t>
+          <t>7029870924526603525</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ASMR tapete Naruto 🍜 #asmr #tufting #naruto #fyp</t>
+          <t>ESTO ES REAL parte 1  #tottus  #tottusperu  #foryou  #fypシ  #viral #nopuedeser #callao  #masrespeto se pasan 🤬🤬🤬🤬🤬</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12900000</v>
+        <v>117700</v>
       </c>
       <c r="D2" t="n">
-        <v>155300</v>
+        <v>9943</v>
       </c>
       <c r="E2" t="n">
-        <v>59600</v>
+        <v>2937</v>
       </c>
       <c r="F2" t="n">
-        <v>133300000</v>
+        <v>2000000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2021-12-03 22:11:19</t>
+          <t>2021-11-13 02:09:34</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@billwave/video/7037602320242281734</t>
+          <t>7029870924526603525</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>soniutt</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@soniutt/video/7029870924526603525</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2021-11-13 02:09:34</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6983483484429946118</t>
+          <t>6890372507904347394</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>still icing my cheek 😀 #anime #naruto  #pain</t>
+          <t>3 looks en un supermercado #tottusperu #outfits #trending #fashion #viral</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9400000</v>
+        <v>89000</v>
       </c>
       <c r="D3" t="n">
-        <v>236900</v>
+        <v>498</v>
       </c>
       <c r="E3" t="n">
-        <v>66100</v>
+        <v>486</v>
       </c>
       <c r="F3" t="n">
-        <v>51000000</v>
+        <v>968300</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2021-07-11 02:02:39</t>
+          <t>2020-11-02 04:04:29</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@hudanoor07/video/6983483484429946118</t>
+          <t>6890372507904347394</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>ivanvasquezofficial</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ivanvasquezofficial/video/6890372507904347394</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2020-11-02 04:04:29</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>7016080102412782849</t>
+          <t>7002229523269881094</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Reply to @itskingchris  Deal 👁💋👁 #ramen #naruto #anime</t>
+          <t>#supermercado #challenge @J Balvin #tottusperu @Monica Torres  #funnyvideo #foryou</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7600000</v>
+        <v>31400</v>
       </c>
       <c r="D4" t="n">
-        <v>31400</v>
+        <v>61</v>
       </c>
       <c r="E4" t="n">
-        <v>44500</v>
+        <v>122</v>
       </c>
       <c r="F4" t="n">
-        <v>46800000</v>
+        <v>347800</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2021-10-06 22:14:08</t>
+          <t>2021-08-30 14:26:48</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@bayashi.tiktok/video/7016080102412782849</t>
+          <t>7002229523269881094</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>magdyelugaz</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@magdyelugaz/video/7002229523269881094</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2021-08-30 14:26:48</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6934418306321468677</t>
+          <t>7052477095716474117</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The Infinite Swaguyomi #anime #naruto #itachi #swag #manga #fy</t>
+          <t>Encontré full ropa verano en @tottusperu ☀️#telocuentoentiktok #dato #tottusperu #perú #parati #yxzcba</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7400000</v>
+        <v>22200</v>
       </c>
       <c r="D5" t="n">
-        <v>204100</v>
+        <v>582</v>
       </c>
       <c r="E5" t="n">
-        <v>55600</v>
+        <v>157</v>
       </c>
       <c r="F5" t="n">
-        <v>49700000</v>
+        <v>532800</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2021-02-28 20:44:49</t>
+          <t>2022-01-13 00:13:03</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@itskingchris/video/6934418306321468677</t>
+          <t>7052477095716474117</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>oenelle</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@oenelle/video/7052477095716474117</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2022-01-13 00:13:03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6911027243837934849</t>
+          <t>7058675273113341190</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>⚠️FLASH WARNING⚠️ this trend is cool af😁 #weeb #anime #ryuk #deathnote #naruto #itachi #secretweebsociety #otaku</t>
+          <t>Hoy me di una vuelta por @tottusperu y encontré preciazos en helados. 🍦 #compras #fyp #supermercado #tottusperu #icecream</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7200000</v>
+        <v>17600</v>
       </c>
       <c r="D6" t="n">
-        <v>226400</v>
+        <v>5216</v>
       </c>
       <c r="E6" t="n">
-        <v>96600</v>
+        <v>868</v>
       </c>
       <c r="F6" t="n">
-        <v>38700000</v>
+        <v>447300</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2020-12-27 19:55:24</t>
+          <t>2022-01-29 17:05:08</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@yaboy.p/video/6911027243837934849</t>
+          <t>7058675273113341190</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>san_laynes</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@san_laynes/video/7058675273113341190</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2022-01-29 17:05:08</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7047037789564718338</t>
+          <t>7030292580793421062</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BanKaiiii #bleach #naruto #onepiece #dragonball #luffy #goku #ichigo #chifasquad</t>
+          <t>parte 3 #tottus  #callao  #tottusperu  #callao_perú  #viral #fypシ #foryou #masrespeto #masrespeto #eselcolmo</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6900000</v>
+        <v>17100</v>
       </c>
       <c r="D7" t="n">
-        <v>140500</v>
+        <v>499</v>
       </c>
       <c r="E7" t="n">
-        <v>49900</v>
+        <v>386</v>
       </c>
       <c r="F7" t="n">
-        <v>50300000</v>
+        <v>337400</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2021-12-29 08:25:45</t>
+          <t>2021-11-14 05:25:49</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@panteravfx/video/7047037789564718338</t>
+          <t>7030292580793421062</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>soniutt</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@soniutt/video/7030292580793421062</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2021-11-14 05:25:49</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6930323674180357378</t>
+          <t>7028716937110736133</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>When you meet up with the squad in Konoha! #animation #art #snl #yeet #naruto #anime #animememes #memes #animationmeme #meme</t>
+          <t>Recomendación de yogurt! 😱 #fypシ #foryou #xyzbca #nutrition #nutricionista #bajardepeso #weightloss #peruanos #yogurt #tottusperu #tottus</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6900000</v>
+        <v>15100</v>
       </c>
       <c r="D8" t="n">
-        <v>1400000</v>
+        <v>484</v>
       </c>
       <c r="E8" t="n">
-        <v>98800</v>
+        <v>179</v>
       </c>
       <c r="F8" t="n">
-        <v>43100000</v>
+        <v>155400</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2021-02-17 19:55:28</t>
+          <t>2021-11-09 23:31:30</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jedd.i/video/6930323674180357378</t>
+          <t>7028716937110736133</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>lanutricionistamagica</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@lanutricionistamagica/video/7028716937110736133</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2021-11-09 23:31:30</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7016039479731408134</t>
+          <t>6934143693171608838</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>And anotha Rinnegan👁 #rinnegan #naruto #prostheticeye #eye #rinneganeye #anime #foryou #foryoupage #fypシ #ocularist #custom</t>
+          <t>LAPTOPS EN CENTRO COMERCIALES (parte II 500♥)#laptops #laptopsperu #perugamer #compraperuano #paratiperuano #supermercado #tottusperu #gamerperuano #p</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6800000</v>
+        <v>9734</v>
       </c>
       <c r="D9" t="n">
-        <v>72800</v>
+        <v>258</v>
       </c>
       <c r="E9" t="n">
-        <v>57000</v>
+        <v>294</v>
       </c>
       <c r="F9" t="n">
-        <v>43600000</v>
+        <v>170600</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2021-10-06 19:36:29</t>
+          <t>2021-02-28 02:59:17</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@zachtheocularist/video/7016039479731408134</t>
+          <t>6934143693171608838</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>yosoyinazuma</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@yosoyinazuma/video/6934143693171608838</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2021-02-28 02:59:17</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7035635527068011777</t>
+          <t>6972183479186427141</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>#anime #tokyoghoul #naruto #myheroacademia #onepiece #demonslayer #haikyuu #onisqd</t>
+          <t>#organizacion con #tottusperu #closet #ropainterior #orden #cajones #accesorios #doit #beforeandafter #diy #fypシ #casaordenada #limpieza #hogar</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6700000</v>
+        <v>15700</v>
       </c>
       <c r="D10" t="n">
-        <v>244400</v>
+        <v>461</v>
       </c>
       <c r="E10" t="n">
-        <v>50400</v>
+        <v>85</v>
       </c>
       <c r="F10" t="n">
-        <v>39200000</v>
+        <v>255800</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2021-11-28 14:59:09</t>
+          <t>2021-06-10 15:12:51</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@nelyrall/video/7035635527068011777</t>
+          <t>6972183479186427141</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>carryon.mom.pe</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@carryon.mom.pe/video/6972183479186427141</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2021-06-10 15:12:51</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6906498608615460097</t>
+          <t>6980082517353188613</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>В какой клан Наруто вы бы хотели попасть? 😏 #yolohouse #наруто #naruto</t>
+          <t>AMO A MIS SEGUIDORES... SON AMOR Y PAZ #tiktokdance #parati #nuevotrend #jossram4 #tottusperu</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6100000</v>
+        <v>15700</v>
       </c>
       <c r="D11" t="n">
-        <v>129500</v>
+        <v>68</v>
       </c>
       <c r="E11" t="n">
-        <v>108100</v>
+        <v>310</v>
       </c>
       <c r="F11" t="n">
-        <v>75600000</v>
+        <v>184000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2020-12-15 15:01:59</t>
+          <t>2021-07-01 22:05:08</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@the.yolohouse/video/6906498608615460097</t>
+          <t>6980082517353188613</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>jossram4</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@jossram4/video/6980082517353188613</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>2021-07-01 22:05:08</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6998958530946436358</t>
+          <t>7012412664517348613</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>What should be the next challenge? 🤔 #anime #dragonball #onepunchman #fyp #naruto</t>
+          <t>Chicas la calidad es muy buena #fashiontiktok #preciazos #tottusperu #basicosdecloset #tiendasperu #comprasinteligentes #tourtiendas #limaperú</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6100000</v>
+        <v>7208</v>
       </c>
       <c r="D12" t="n">
-        <v>45400</v>
+        <v>170</v>
       </c>
       <c r="E12" t="n">
-        <v>58000</v>
+        <v>67</v>
       </c>
       <c r="F12" t="n">
-        <v>62600000</v>
+        <v>168500</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2021-08-21 18:53:40</t>
+          <t>2021-09-27 01:02:35</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@daveardito/video/6998958530946436358</t>
+          <t>7012412664517348613</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>katecruzbal</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@katecruzbal/video/7012412664517348613</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2021-09-27 01:02:35</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6910080001769475334</t>
+          <t>7008588694877736198</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Thank you so much for 37K you all are amazing💜 Merry Christmas! | Reference: @shinsama422 #naruto #sasuke #kakashi #anime #dance #animation</t>
+          <t>#TEAMTottusElAgustino🤩 TottusElAgustin##viral #TottusPeru #indagettochallenge @jbalvin @ioanispatsias</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5600000</v>
+        <v>7105</v>
       </c>
       <c r="D13" t="n">
-        <v>672300</v>
+        <v>241</v>
       </c>
       <c r="E13" t="n">
-        <v>47000</v>
+        <v>125</v>
       </c>
       <c r="F13" t="n">
-        <v>39500000</v>
+        <v>112400</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2020-12-25 06:39:59</t>
+          <t>2021-09-16 17:43:38</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@naidame/video/6910080001769475334</t>
+          <t>7008588694877736198</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>jeyq16</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@jeyq16/video/7008588694877736198</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2021-09-16 17:43:38</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>7035759078991269125</t>
+          <t>6971193825872203014</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Serious booger flick 😂👌🏼 @pia_thepanda #saitama #mha #naruto #liveaction #anime</t>
+          <t>A S/. 19.90! En Tottus 💚 #cafetera #cafe #datazo #peru #peruana #oferta #tottusperu #prensafrancesa #latte #parati #viral #fypforyou #lentejas</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5500000</v>
+        <v>6492</v>
       </c>
       <c r="D14" t="n">
-        <v>38300</v>
+        <v>51</v>
       </c>
       <c r="E14" t="n">
-        <v>28900</v>
+        <v>113</v>
       </c>
       <c r="F14" t="n">
-        <v>35600000</v>
+        <v>112300</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2021-11-28 22:58:36</t>
+          <t>2021-06-07 23:12:30</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@daveardito/video/7035759078991269125</t>
+          <t>6971193825872203014</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>christydinatali</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@christydinatali/video/6971193825872203014</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2021-06-07 23:12:30</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6893969569342311686</t>
+          <t>7054724734516202758</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Kakashi - Ninja Mission 1 #kakashi #kakashihatake #kakashicosplay #naruto #narutoshippuden #anime #1000yearsofdeath #funny #animeconvention #dpiddy</t>
+          <t>Café helado ••••#historiasdecocina #janaescudero #peru #jana_escudero7 #tottusperu #coffeetime #cafe #coffeelover #coffeeaddict #coffeegram #latte #instacoffee #espresso #caffeine #coffeeshop #barista #latteart #breakfast #coffeelovers #coffeeholic #coffeebreak #커피 #coffeelove #コーヒー #starbucks #morning #coffeelife #cappuccino #coffeeoftheday #tea #specialtycoffee #mug #coffeemug #café #coffeeporn</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5400000</v>
+        <v>6336</v>
       </c>
       <c r="D15" t="n">
-        <v>159400</v>
+        <v>126</v>
       </c>
       <c r="E15" t="n">
-        <v>65500</v>
+        <v>120</v>
       </c>
       <c r="F15" t="n">
-        <v>42900000</v>
+        <v>123000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2020-11-11 20:43:26</t>
+          <t>2022-01-19 01:35:02</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@dpiddy/video/6893969569342311686</t>
+          <t>7054724734516202758</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>jana_escudero7</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@jana_escudero7/video/7054724734516202758</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>2022-01-19 01:35:02</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6923206935324019973</t>
+          <t>7010839058217831685</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Kunai to @bagot_man #fyp #caveman #naruto #knife #bladesmith #survival #bushcraft #whyimsingle #diy #minecraft #flintknapping #craft #knifeskills</t>
+          <t>#lentejas #Ayudaanimal #ALVA #fyp #EnUnMinuto #TOTTUSPERU #ayudaanimals aanimal  #viral #paratipage #Foryou</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5400000</v>
+        <v>6034</v>
       </c>
       <c r="D16" t="n">
-        <v>48800</v>
+        <v>712</v>
       </c>
       <c r="E16" t="n">
-        <v>97000</v>
+        <v>528</v>
       </c>
       <c r="F16" t="n">
-        <v>33900000</v>
+        <v>22500</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2021-01-29 15:39:00</t>
+          <t>2021-09-22 19:16:11</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@donnydust/video/6923206935324019973</t>
+          <t>7010839058217831685</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>larissaazabache</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@larissaazabache/video/7010839058217831685</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>2021-09-22 19:16:11</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6994968586007727365</t>
+          <t>6909688856933616901</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Kakashi vs Pain #anime #naruto #kakashi #akatsuki #manga #fy</t>
+          <t>UN DÍA BUSCANDO PAVO 👀🤡#navidad #viral #storytime  #tottusperu  #pavo #pavonavideño  #parati</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5300000</v>
+        <v>5769</v>
       </c>
       <c r="D17" t="n">
-        <v>74200</v>
+        <v>22</v>
       </c>
       <c r="E17" t="n">
-        <v>32000</v>
+        <v>75</v>
       </c>
       <c r="F17" t="n">
-        <v>33800000</v>
+        <v>65000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2021-08-11 00:50:40</t>
+          <t>2020-12-24 05:22:08</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@itskingchris/video/6994968586007727365</t>
+          <t>6909688856933616901</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>katiaanalireyna</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@katiaanalireyna/video/6909688856933616901</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>2020-12-24 05:22:08</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6993416090185436422</t>
+          <t>6967148039727222022</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>#foryou #foryoupage #naruto #jutsu #ninja #otaku #anime #foryou #foryoupage</t>
+          <t>Encontré lindos zapatos en tottus de la Marina ✔️✌🏼 #trend #dato #tottusperu #tottus #trendy #telocuento</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5300000</v>
+        <v>4492</v>
       </c>
       <c r="D18" t="n">
-        <v>119200</v>
+        <v>192</v>
       </c>
       <c r="E18" t="n">
-        <v>119900</v>
+        <v>142</v>
       </c>
       <c r="F18" t="n">
-        <v>23800000</v>
+        <v>179000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2021-08-06 20:26:10</t>
+          <t>2021-05-28 01:32:46</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@ezutsuni.kun/video/6993416090185436422</t>
+          <t>6967148039727222022</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>oenelle</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@oenelle/video/6967148039727222022</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>2021-05-28 01:32:46</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6935966694280121602</t>
+          <t>7055901720416767238</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>not bad😼 #cucokcucucimory #TerimaKasihPahlawanHebatku #otaku #wibu #anime #foryoupage #fyp #fypシ #fy #zoro #tanjiro #killua #naruto #genos #levi #aot</t>
+          <t>#fyp #tiktok #gacha #lentejas #xzbcya #foryou #parati #tottusperu #xd</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5200000</v>
+        <v>3760</v>
       </c>
       <c r="D19" t="n">
-        <v>216700</v>
+        <v>39</v>
       </c>
       <c r="E19" t="n">
-        <v>44000</v>
+        <v>296</v>
       </c>
       <c r="F19" t="n">
-        <v>34700000</v>
+        <v>45200</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2021-03-05 00:53:17</t>
+          <t>2022-01-22 05:42:23</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@yaagamiii/video/6935966694280121602</t>
+          <t>7055901720416767238</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>val_x.gacha</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@val_x.gacha/video/7055901720416767238</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2022-01-22 05:42:23</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6980050864614558982</t>
+          <t>7003551741077769478</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>💔 #kawaki #boruto #animeedit #anime #naruto</t>
+          <t>Responder a @noaptoparacardiacas #peru #lima #trago #alcoholtok #peruviantiktok #whiskey #whisky #tottusperu #tottus #tragos #bartender #barman #bar</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5000000</v>
+        <v>3656</v>
       </c>
       <c r="D20" t="n">
-        <v>10700</v>
+        <v>112</v>
       </c>
       <c r="E20" t="n">
-        <v>15600</v>
+        <v>108</v>
       </c>
       <c r="F20" t="n">
-        <v>42200000</v>
+        <v>53600</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2021-07-01 20:02:19</t>
+          <t>2021-09-03 03:57:42</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@anime.tokyo.7/video/6980050864614558982</t>
+          <t>7003551741077769478</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>el_laborratorio</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@el_laborratorio/video/7003551741077769478</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>2021-09-03 03:57:42</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6966103387238616325</t>
+          <t>6977565428021234949</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>#tobi #naruto #minato #manga</t>
+          <t>PRECIO DEL ACEITE POR LAS NUBES 😱😱😱😱😱 #tottus  #tottusperu  #queapasadoaqui  #memuero  #foryou  #fypシ  #delocos</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5000000</v>
+        <v>3485</v>
       </c>
       <c r="D21" t="n">
-        <v>61200</v>
+        <v>424</v>
       </c>
       <c r="E21" t="n">
-        <v>55300</v>
+        <v>640</v>
       </c>
       <c r="F21" t="n">
-        <v>30500000</v>
+        <v>186500</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2021-05-25 05:59:06</t>
+          <t>2021-06-25 03:17:35</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@11avril/video/6966103387238616325</t>
+          <t>6977565428021234949</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>soniutt</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@soniutt/video/6977565428021234949</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>2021-06-25 03:17:35</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6936304115249057030</t>
+          <t>6896909490222828801</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Reply to @protocattachy #fyp #caveman #naruto #katana #survival #bushcraft #sword #woodworking #foryoupage #anime #cosplay #diy #makeit #yeah #makers</t>
+          <t>Muchos amamos este cereal!!. Aprovechen!. #tiktoklima #tiktokperu #peruanas #peruanos #fyp #captaincrunch #cereal #desayuno #news #tottusperu #parati</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4900000</v>
+        <v>3139</v>
       </c>
       <c r="D22" t="n">
-        <v>24500</v>
+        <v>299</v>
       </c>
       <c r="E22" t="n">
-        <v>82100</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>28000000</v>
+        <v>180900</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2021-03-05 22:42:35</t>
+          <t>2020-11-19 18:51:17</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@donnydust/video/6936304115249057030</t>
+          <t>6896909490222828801</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>sorpresaslab</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@sorpresaslab/video/6896909490222828801</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>2020-11-19 18:51:17</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6932877023878614277</t>
+          <t>6871422363947355394</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>untraditional urn with an unexpected message #clay #ceramics #pottery #art #clayart #clayartist #handmade #naruto #urn</t>
+          <t>Yo me enamore del 👖 estaban muy barato😍 cual fue tu prenda favorita ?instag;@Saorisoudre #perú  #tottus #tottusperu</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4900000</v>
+        <v>6224</v>
       </c>
       <c r="D23" t="n">
-        <v>40600</v>
+        <v>19</v>
       </c>
       <c r="E23" t="n">
-        <v>19100</v>
+        <v>220</v>
       </c>
       <c r="F23" t="n">
-        <v>22000000</v>
+        <v>94500</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2021-02-24 17:03:52</t>
+          <t>2020-09-12 02:28:16</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@ceramicnoodles/video/6932877023878614277</t>
+          <t>6871422363947355394</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>saorisoudree</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@saorisoudree/video/6871422363947355394</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2020-09-12 02:28:16</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>7006051310545980673</t>
+          <t>6968633388475501830</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Добейте 100к💜 #mma #ufc #edit #anime #naruto #israeladesanya</t>
+          <t>fui a Tottus y encontré muchas tendencias, lo mejor es que están a muy buen precio. 😍🤩 #tottusperu #ropasupermercado #ropabarata #ropatendenciaperu</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4600000</v>
+        <v>3099</v>
       </c>
       <c r="D24" t="n">
-        <v>76400</v>
+        <v>137</v>
       </c>
       <c r="E24" t="n">
-        <v>17300</v>
+        <v>33</v>
       </c>
       <c r="F24" t="n">
-        <v>56100000</v>
+        <v>132200</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2021-09-09 21:37:18</t>
+          <t>2021-06-01 01:36:41</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@ultramma/video/7006051310545980673</t>
+          <t>6968633388475501830</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>kellyzevallosh</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@kellyzevallosh/video/6968633388475501830</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>2021-06-01 01:36:41</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6976873866937339138</t>
+          <t>6957177120116182277</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>What #Naruto character should I create next?</t>
+          <t>Video random jajaj me pregunto si siguen vendiendo choripanes con coca cola🤔 #tottusperu #choripan #contodaslascremas #peruanadas #tottusperu #jk</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4400000</v>
+        <v>5630</v>
       </c>
       <c r="D25" t="n">
-        <v>33400</v>
+        <v>247</v>
       </c>
       <c r="E25" t="n">
-        <v>24600</v>
+        <v>151</v>
       </c>
       <c r="F25" t="n">
-        <v>34600000</v>
+        <v>37900</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2021-06-23 06:34:03</t>
+          <t>2021-05-01 04:40:34</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@salavat.fidai/video/6976873866937339138</t>
+          <t>6957177120116182277</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>lupezevart</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@lupezevart/video/6957177120116182277</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>2021-05-01 04:40:34</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6994887394323401990</t>
+          <t>6995342584742726918</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>#anime #naruto #edit #jutsusquad #fyp</t>
+          <t>#parati #fypシ #xzybca #tiktokperu #tottusperu #tottus #supermercadometro #yosoycreador #limaperu #perutiktok #tendencia #enrrollados #cocina #viral</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4300000</v>
+        <v>2787</v>
       </c>
       <c r="D26" t="n">
-        <v>210500</v>
+        <v>49</v>
       </c>
       <c r="E26" t="n">
-        <v>28600</v>
+        <v>92</v>
       </c>
       <c r="F26" t="n">
-        <v>22800000</v>
+        <v>56500</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2021-08-10 19:35:35</t>
+          <t>2021-08-12 01:01:58</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@ncsz.one/video/6994887394323401990</t>
+          <t>6995342584742726918</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>takerico_</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@takerico_/video/6995342584742726918</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>2021-08-12 01:01:58</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>7002430146313489669</t>
+          <t>6902897476370533634</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Testing our stickers on a flask 🧐 part 2 in a couple of days 🙌🏻 #naruto #animestickers #animetiktok #narutoshippuden #narutouzumaki #otaku #fypシ</t>
+          <t>#parati #viral #tottusperu</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4300000</v>
+        <v>4701</v>
       </c>
       <c r="D27" t="n">
-        <v>45100</v>
+        <v>673</v>
       </c>
       <c r="E27" t="n">
-        <v>27700</v>
+        <v>143</v>
       </c>
       <c r="F27" t="n">
-        <v>45000000</v>
+        <v>43000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2021-08-31 03:25:20</t>
+          <t>2020-12-05 22:07:45</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@ichigoprints/video/7002430146313489669</t>
+          <t>6902897476370533634</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>brian.martinez93</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@brian.martinez93/video/6902897476370533634</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>2020-12-05 22:07:45</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6886188860750023941</t>
+          <t>7069927929026727174</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>u need to watch this anime :o #fyp #foryoupage #foryou #anime #animes #jujutsukaisen #jujutsukaisenedit #weeb#otaku#animeedit#epic#naruto#leviackerman</t>
+          <t>PROMOCIÓN EN TOTTUS 😮@tottusperu 😃✔️#tottusperu #promociones #ofertas #mamis #saludable</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4300000</v>
+        <v>2447</v>
       </c>
       <c r="D28" t="n">
-        <v>439000</v>
+        <v>448</v>
       </c>
       <c r="E28" t="n">
-        <v>61600</v>
+        <v>127</v>
       </c>
       <c r="F28" t="n">
-        <v>30000000</v>
+        <v>105500</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2020-10-21 21:30:23</t>
+          <t>2022-03-01 00:51:11</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@ysenpaii/video/6886188860750023941</t>
+          <t>7069927929026727174</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>gracielabosi</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@gracielabosi/video/7069927929026727174</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>2022-03-01 00:51:11</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6845263743794859269</t>
+          <t>7030467178365209862</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Who's the most badass anime character? ⚡️ #anime #animechallenge #animeedit #animethings #kakashi #kakashicosplay #naruto #haikyuu</t>
+          <t>última parte ,,😩😩😩 #tottusperu #tottus #masrespeto #eselcolmo #fypシ #foryou #callao_perú #viral #malaatencion  #tottuscallao</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4200000</v>
+        <v>2267</v>
       </c>
       <c r="D29" t="n">
-        <v>78000</v>
+        <v>34</v>
       </c>
       <c r="E29" t="n">
-        <v>31900</v>
+        <v>71</v>
       </c>
       <c r="F29" t="n">
-        <v>47300000</v>
+        <v>135400</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2020-07-03 14:39:26</t>
+          <t>2021-11-14 16:43:19</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@bera_nanuka/video/6845263743794859269</t>
+          <t>7030467178365209862</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>soniutt</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@soniutt/video/7030467178365209862</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>2021-11-14 16:43:19</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>7032768346013601029</t>
+          <t>6948604544351849733</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>You can’t outrun Kushina’s pan @mimisemaan  🍳 😂 #minato #kushina #naruto #liveaction #anime</t>
+          <t>#tottus  #tottusperu  #tiendaderopa  #fashion  #foryoupage  #parati</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4200000</v>
+        <v>2148</v>
       </c>
       <c r="D30" t="n">
-        <v>26600</v>
+        <v>95</v>
       </c>
       <c r="E30" t="n">
-        <v>14400</v>
+        <v>58</v>
       </c>
       <c r="F30" t="n">
-        <v>25300000</v>
+        <v>73200</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2021-11-20 21:33:01</t>
+          <t>2021-04-08 02:14:33</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@daveardito/video/7032768346013601029</t>
+          <t>6948604544351849733</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>valeriatn97</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@valeriatn97/video/6948604544351849733</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>2021-04-08 02:14:33</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6964109163626646790</t>
+          <t>6962161394175315206</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Spicy Ramen 🌶🍥🍜, Danke für 1,5 Millionen 🙏 #asmr #spicy #japanese #ramen #naruto #fyp #food #tiktokfood</t>
+          <t>🚨 DATO 🚨 Decoración linda en @tottusperu ✔️ #tottusperu #dato #telocuento #deco #tour #trend #trendy</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4100000</v>
+        <v>2058</v>
       </c>
       <c r="D31" t="n">
-        <v>86100</v>
+        <v>43</v>
       </c>
       <c r="E31" t="n">
-        <v>37000</v>
+        <v>19</v>
       </c>
       <c r="F31" t="n">
-        <v>22200000</v>
+        <v>71300</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2021-05-19 21:00:22</t>
+          <t>2021-05-14 15:02:02</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@foodkagechris/video/6964109163626646790</t>
+          <t>6962161394175315206</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>oenelle</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@oenelle/video/6962161394175315206</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>2021-05-14 15:02:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>7033553465733352709</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Datooo! 🚨🎄Estuve en la tienda @TottusPeru de la Marina #telocuento #dato #foryou #tottusperu</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>2051</v>
+      </c>
+      <c r="D32" t="n">
+        <v>286</v>
+      </c>
+      <c r="E32" t="n">
+        <v>48</v>
+      </c>
+      <c r="F32" t="n">
+        <v>94600</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2021-11-23 00:19:42</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>7033553465733352709</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>oenelle</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@oenelle/video/7033553465733352709</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>2021-11-23 00:19:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>7022814854419369221</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ETIQUETEN A @flavialaosu1 ⬅️⬅️🙏🙏🙏 gracias @tottusperu #limaperu🇵🇪 #megaplaza #megaplazaindependencia #tottusperu #fyp #fypシ゚viral</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1905</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5</v>
+      </c>
+      <c r="E33" t="n">
+        <v>71</v>
+      </c>
+      <c r="F33" t="n">
+        <v>66300</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2021-10-25 01:48:24</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>7022814854419369221</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>jossram4</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@jossram4/video/7022814854419369221</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>2021-10-25 01:48:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>7058061191746211077</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Amo los noventeros 😍 más datos en mi IG: daniellaeacosta #datos #compraconmigo #datazos #points #tottusperu #compras #fypシ</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1849</v>
+      </c>
+      <c r="D34" t="n">
+        <v>155</v>
+      </c>
+      <c r="E34" t="n">
+        <v>41</v>
+      </c>
+      <c r="F34" t="n">
+        <v>48800</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2022-01-28 01:22:12</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>7058061191746211077</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>daniellaeacosta</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@daniellaeacosta/video/7058061191746211077</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>2022-01-28 01:22:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>6984812243988860166</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ropitqa y zapatitos de bebé en #tottus #tottusperu #ropadebebe #comprasrottus #ropadebebetottus #bebe12meses #mamaehijo #madreprimeriza #pantuflabebe</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1810</v>
+      </c>
+      <c r="D35" t="n">
+        <v>146</v>
+      </c>
+      <c r="E35" t="n">
+        <v>86</v>
+      </c>
+      <c r="F35" t="n">
+        <v>65400</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2021-07-14 15:58:54</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>6984812243988860166</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>veritoppp</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@veritoppp/video/6984812243988860166</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>2021-07-14 15:58:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>7061082205543501062</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Productos de #supermercados #tottus #tottusperu que recomiendo por mi experiencia 💕💕💕✨ #perutiktok #viral</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1789</v>
+      </c>
+      <c r="D36" t="n">
+        <v>41</v>
+      </c>
+      <c r="E36" t="n">
+        <v>34</v>
+      </c>
+      <c r="F36" t="n">
+        <v>17600</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2022-02-05 04:45:17</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>7061082205543501062</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>skinbonitta_</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@skinbonitta_/video/7061082205543501062</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>2022-02-05 04:45:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>6968151293911125253</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Compritas random en ✨Tottus✨ habían ofertas #compritasrandom #tottusperu #sale #outfitstyle</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1736</v>
+      </c>
+      <c r="D37" t="n">
+        <v>30</v>
+      </c>
+      <c r="E37" t="n">
+        <v>34</v>
+      </c>
+      <c r="F37" t="n">
+        <v>96600</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2021-05-30 18:25:53</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>6968151293911125253</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>morenahowards</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@morenahowards/video/6968151293911125253</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>2021-05-30 18:25:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>6934448372057246981</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>me pasa todo el tiempo, a ti? #greenscreen  #cajero  #tottusperu  #malhumor  #supermercado  #cliente</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1539</v>
+      </c>
+      <c r="D38" t="n">
+        <v>30</v>
+      </c>
+      <c r="E38" t="n">
+        <v>64</v>
+      </c>
+      <c r="F38" t="n">
+        <v>76900</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2021-02-28 22:41:32</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>6934448372057246981</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>diegoruiz1923</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@diegoruiz1923/video/6934448372057246981</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>2021-02-28 22:41:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>7059860760792665350</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>OMG 🤯 Amé las de zebra 😍 IG: daniellaeacosta 💕 #datos #datazos #ofertas #descuentos #recomendacion #fypシ #viral #tottusperu #ahorrasi</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1512</v>
+      </c>
+      <c r="D39" t="n">
+        <v>86</v>
+      </c>
+      <c r="E39" t="n">
+        <v>27</v>
+      </c>
+      <c r="F39" t="n">
+        <v>65700</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2022-02-01 21:45:26</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>7059860760792665350</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>daniellaeacosta</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@daniellaeacosta/video/7059860760792665350</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>2022-02-01 21:45:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>6872851587803401473</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>en tottus del callao parte 2 #tottusperu  #humor  #supermercado  #parati</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>2910</v>
+      </c>
+      <c r="D40" t="n">
+        <v>20</v>
+      </c>
+      <c r="E40" t="n">
+        <v>58</v>
+      </c>
+      <c r="F40" t="n">
+        <v>74500</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2020-09-15 22:54:24</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>6872851587803401473</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>lapacora</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@lapacora/video/6872851587803401473</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>2020-09-15 22:54:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>7036921462418164998</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Cuando ya eres toda una señora 🥲 #haulcompras #tourtiendas #tottusperu #descuentos #tiendaslima #descuentoslima #cosasdelhogar @TottusPeru</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1426</v>
+      </c>
+      <c r="D41" t="n">
+        <v>18</v>
+      </c>
+      <c r="E41" t="n">
+        <v>41</v>
+      </c>
+      <c r="F41" t="n">
+        <v>33300</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2021-12-02 02:09:15</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>7036921462418164998</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>katecruzbal</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@katecruzbal/video/7036921462418164998</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>2021-12-02 02:09:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>6839094550389099782</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>🤭🤭🤭 #tottus #tottusperu #fypp #clubdelinda</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1279</v>
+      </c>
+      <c r="D42" t="n">
+        <v>7</v>
+      </c>
+      <c r="E42" t="n">
+        <v>65</v>
+      </c>
+      <c r="F42" t="n">
+        <v>24100</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2020-06-16 23:39:49</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>6839094550389099782</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>club_de_linda</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@club_de_linda/video/6839094550389099782</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>2020-06-16 23:39:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>7008637784659397893</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>#TottusPeru #indagettochallenge #jbalvin #parati</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1263</v>
+      </c>
+      <c r="D43" t="n">
+        <v>74</v>
+      </c>
+      <c r="E43" t="n">
+        <v>100</v>
+      </c>
+      <c r="F43" t="n">
+        <v>27200</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2021-09-16 20:54:07</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>7008637784659397893</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>jeyq16</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@jeyq16/video/7008637784659397893</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>2021-09-16 20:54:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>7057246741195689221</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>#tottus #tottusperu</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>2518</v>
+      </c>
+      <c r="D44" t="n">
+        <v>80</v>
+      </c>
+      <c r="E44" t="n">
+        <v>53</v>
+      </c>
+      <c r="F44" t="n">
+        <v>83300</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2022-01-25 20:41:42</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>7057246741195689221</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>mami_pily</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@mami_pily/video/7057246741195689221</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>2022-01-25 20:41:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>7030090190815251717</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>YA SE PASAN ENSERIOOO #tottusperu  #callao #fypシ #foryou #nopuedeser #viral #comedia ,,😂😂😂😂😂</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1170</v>
+      </c>
+      <c r="D45" t="n">
+        <v>261</v>
+      </c>
+      <c r="E45" t="n">
+        <v>39</v>
+      </c>
+      <c r="F45" t="n">
+        <v>39600</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2021-11-13 16:20:25</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>7030090190815251717</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>soniutt</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@soniutt/video/7030090190815251717</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>2021-11-13 16:20:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>7063625092403694854</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Mis compras en @TottusPeru ustedes también comen paneton ahora? #descuentos #tottusperu #haulsupermecado #supermercado #datazos</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1113</v>
+      </c>
+      <c r="D46" t="n">
+        <v>6</v>
+      </c>
+      <c r="E46" t="n">
+        <v>35</v>
+      </c>
+      <c r="F46" t="n">
+        <v>23400</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2022-02-12 01:12:58</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>7063625092403694854</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>katecruzbal</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@katecruzbal/video/7063625092403694854</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>2022-02-12 01:12:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>7024509812050447621</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>#luzdelunatips #datos #superofertas #tottusperu</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1015</v>
+      </c>
+      <c r="D47" t="n">
+        <v>78</v>
+      </c>
+      <c r="E47" t="n">
+        <v>10</v>
+      </c>
+      <c r="F47" t="n">
+        <v>79200</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2021-10-29 15:25:42</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>7024509812050447621</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>luzdelunatips</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@luzdelunatips/video/7024509812050447621</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>2021-10-29 15:25:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>7067327637969964294</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>LOS ZAPATOS LO SON TODO 😭❤️ IG: daniellaeacosta #datos #datazos #haulropa #haul #compraconmigo #fyp #tottusperu</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1006</v>
+      </c>
+      <c r="D48" t="n">
+        <v>5</v>
+      </c>
+      <c r="E48" t="n">
+        <v>12</v>
+      </c>
+      <c r="F48" t="n">
+        <v>28000</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2022-02-22 00:40:44</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>7067327637969964294</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>daniellaeacosta</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@daniellaeacosta/video/7067327637969964294</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>2022-02-22 00:40:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>6973404814168444165</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>LO QUE CALLAMOS LOS CAJEROS😅🥑🥑 #tottusperu #cajerosupermercado #tiktok #peruan #lgtbq🏳️‍🌈 #viral #parati #recuerdos #trabajos #fyp #foryou1</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>955</v>
+      </c>
+      <c r="D49" t="n">
+        <v>9</v>
+      </c>
+      <c r="E49" t="n">
+        <v>87</v>
+      </c>
+      <c r="F49" t="n">
+        <v>10200</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2021-06-13 22:12:15</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>6973404814168444165</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>luifernao96</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@luifernao96/video/6973404814168444165</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>2021-06-13 22:12:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>7047593409023872262</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>#tottus #tottusperu #callao #supermercado #escasez #alimentos</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>898</v>
+      </c>
+      <c r="D50" t="n">
+        <v>24</v>
+      </c>
+      <c r="E50" t="n">
+        <v>74</v>
+      </c>
+      <c r="F50" t="n">
+        <v>69800</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2021-12-30 20:21:51</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>7047593409023872262</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>elespaciodemami</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@elespaciodemami/video/7047593409023872262</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>2021-12-30 20:21:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>7052848182488780037</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Lindas ropas de baño en @tottusperu 📍De la Marina #telocuentoentiktok #dato #tottusperu #perú #parati #yxzcba</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>770</v>
+      </c>
+      <c r="D51" t="n">
+        <v>47</v>
+      </c>
+      <c r="E51" t="n">
+        <v>15</v>
+      </c>
+      <c r="F51" t="n">
+        <v>32300</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2022-01-14 00:13:03</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>7052848182488780037</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>oenelle</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@oenelle/video/7052848182488780037</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>2022-01-14 00:13:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>7016185798051515653</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Fin de semana y más  🛒👛#compras #supermercado #restockday #perú_tiktok #tottus #tottusperu</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>763</v>
+      </c>
+      <c r="D52" t="n">
+        <v>8</v>
+      </c>
+      <c r="E52" t="n">
+        <v>19</v>
+      </c>
+      <c r="F52" t="n">
+        <v>21600</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2021-10-07 05:04:18</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>7016185798051515653</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>carlapimentelmakeup</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@carlapimentelmakeup/video/7016185798051515653</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>2021-10-07 05:04:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>6912584364312366341</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>#tiktokperú #smile #smileyface #tottusperu #tottusporongoche #tottusarequipa #feliz2021👅</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>738</v>
+      </c>
+      <c r="D53" t="n">
+        <v>9</v>
+      </c>
+      <c r="E53" t="n">
+        <v>30</v>
+      </c>
+      <c r="F53" t="n">
+        <v>6017</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2021-01-01 00:38:00</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>6912584364312366341</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>jorgevela06</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@jorgevela06/video/6912584364312366341</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>2021-01-01 00:38:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>6899910064304295170</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>#tottusperu #fyp #foryou #limaperu🇵🇪</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>735</v>
+      </c>
+      <c r="D54" t="n">
+        <v>16</v>
+      </c>
+      <c r="E54" t="n">
+        <v>26</v>
+      </c>
+      <c r="F54" t="n">
+        <v>14200</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2020-11-27 20:55:04</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>6899910064304295170</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>sotorojasyesi</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@sotorojasyesi/video/6899910064304295170</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>2020-11-27 20:55:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>7059181361474587910</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>😯😯preciazos#tottusperu</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1453</v>
+      </c>
+      <c r="D55" t="n">
+        <v>752</v>
+      </c>
+      <c r="E55" t="n">
+        <v>156</v>
+      </c>
+      <c r="F55" t="n">
+        <v>161300</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>2022-01-31 01:49:02</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>7059181361474587910</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>milagrosarroyo50</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@milagrosarroyo50/video/7059181361474587910</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>2022-01-31 01:49:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>7005393566214130949</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>🎂🍰Tortitas Salvadoras # 1 @TottusPeru @wongoficial #wongperu #plazaveaperu #tottusperu #tortas #cakes #sweet #dulce #fyp #foryou #viral #torta</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>708</v>
+      </c>
+      <c r="D56" t="n">
+        <v>13</v>
+      </c>
+      <c r="E56" t="n">
+        <v>25</v>
+      </c>
+      <c r="F56" t="n">
+        <v>19400</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>2021-09-08 03:04:54</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>7005393566214130949</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>reviewsypostres</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@reviewsypostres/video/7005393566214130949</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>2021-09-08 03:04:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>6924131863221013766</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>#voiceeffects esto paso en el hipermercados Tottus con el personal de limpieza#discriminacion #nuncamas #tottusperu #mujer #trans  #homofobia</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>707</v>
+      </c>
+      <c r="D57" t="n">
+        <v>44</v>
+      </c>
+      <c r="E57" t="n">
+        <v>579</v>
+      </c>
+      <c r="F57" t="n">
+        <v>38400</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2021-02-01 03:28:16</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>6924131863221013766</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>jairsitooysusamigos</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@jairsitooysusamigos/video/6924131863221013766</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>2021-02-01 03:28:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>7024675392745147654</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Ya se siente la navidad #tourstienda #tottusperu #decoracion #organization #organizacion #datazo #promociones</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>657</v>
+      </c>
+      <c r="D58" t="n">
+        <v>12</v>
+      </c>
+      <c r="E58" t="n">
+        <v>15</v>
+      </c>
+      <c r="F58" t="n">
+        <v>22900</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2021-10-30 02:08:14</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>7024675392745147654</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>katecruzbal</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@katecruzbal/video/7024675392745147654</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>2021-10-30 02:08:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>7003165915474824454</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Responder a @josue.drsc19 #tottus #tottusperu #tragos #whisky #whiskey #bar #peruviantiktok #alcoholtok #trago #lima #peru #bartender #nuevoproducto</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>636</v>
+      </c>
+      <c r="D59" t="n">
+        <v>12</v>
+      </c>
+      <c r="E59" t="n">
+        <v>23</v>
+      </c>
+      <c r="F59" t="n">
+        <v>24000</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2021-09-02 03:00:29</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>7003165915474824454</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>el_laborratorio</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@el_laborratorio/video/7003165915474824454</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>2021-09-02 03:00:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>6902563480713448705</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Ven que no somos nada sin los agricultores #paroagrario #ica #fyp #parati #tottusperu</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>550</v>
+      </c>
+      <c r="D60" t="n">
+        <v>30</v>
+      </c>
+      <c r="E60" t="n">
+        <v>9</v>
+      </c>
+      <c r="F60" t="n">
+        <v>7147</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>2020-12-05 00:31:42</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>6902563480713448705</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>chavezdelarosaned</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@chavezdelarosaned/video/6902563480713448705</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>2020-12-05 00:31:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>7053537858828668165</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Corre manaa 🏃🏽‍♀️🛍 #revlonperu #revlononestep #cepillosecadorrevlon #hairtools #peru2022 #fyp2022 #tottusperu #lentejas #paratiperu #verano2022</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>550</v>
+      </c>
+      <c r="D61" t="n">
+        <v>23</v>
+      </c>
+      <c r="E61" t="n">
+        <v>51</v>
+      </c>
+      <c r="F61" t="n">
+        <v>15500</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>2022-01-15 20:49:20</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>7053537858828668165</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>cat.thedesigner</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cat.thedesigner/video/7053537858828668165</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>2022-01-15 20:49:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>6969975059347721478</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>así de serios somos en el trabajo 😂😌😎😅🤣😂👏🏽😂#fypシ  #tottusperu  #tottuslandia #tottus #trabajoenequipo #parati</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>505</v>
+      </c>
+      <c r="D62" t="n">
+        <v>38</v>
+      </c>
+      <c r="E62" t="n">
+        <v>27</v>
+      </c>
+      <c r="F62" t="n">
+        <v>28000</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>2021-06-04 16:23:02</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>6969975059347721478</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>joseph_qc</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@joseph_qc/video/6969975059347721478</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>2021-06-04 16:23:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>7054002525199961349</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>#pancitosconpremio #tottusperu #indecopi</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>332</v>
+      </c>
+      <c r="D63" t="n">
+        <v>192</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>83300</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2022-01-17 02:52:30</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>7054002525199961349</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>jhoselinlibrana</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@jhoselinlibrana/video/7054002525199961349</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>2022-01-17 02:52:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>6977511031576775942</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>SIGANME EN INSTAGRAM JOSSRAM14 #fyp #tiktokdance #parati #tottusperu #TalentoTikTok #fyp</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>318</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" t="n">
+        <v>10</v>
+      </c>
+      <c r="F64" t="n">
+        <v>3822</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2021-06-24 23:46:28</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>6977511031576775942</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>jossram4</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@jossram4/video/6977511031576775942</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>2021-06-24 23:46:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>7056605200429157637</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Responder a @sin.nombrepe xd#parati #foryou #xzbcya #lentejas #gacha #tiktok #fyp #xd #tottusperu</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>309</v>
+      </c>
+      <c r="D65" t="n">
+        <v>3</v>
+      </c>
+      <c r="E65" t="n">
+        <v>11</v>
+      </c>
+      <c r="F65" t="n">
+        <v>4941</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2022-01-24 03:12:13</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>7056605200429157637</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>val_x.gacha</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@val_x.gacha/video/7056605200429157637</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>2022-01-24 03:12:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>7066959809806929157</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>jajjaa en mentira me gusta mi trabajo 💚#tottus #peru #tottusperu</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>626</v>
+      </c>
+      <c r="D66" t="n">
+        <v>8</v>
+      </c>
+      <c r="E66" t="n">
+        <v>47</v>
+      </c>
+      <c r="F66" t="n">
+        <v>27900</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2022-02-21 00:53:23</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>7066959809806929157</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>vanesaperez02.11</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@vanesaperez02.11/video/7066959809806929157</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>2022-02-21 00:53:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>7016833407296507142</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>mi desfogo aquí xD #tottusperu me encantan tus panes 🥲🤗</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>605</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>18</v>
+      </c>
+      <c r="F67" t="n">
+        <v>16000</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2021-10-08 22:57:19</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>7016833407296507142</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>yashiracm</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@yashiracm/video/7016833407296507142</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>2021-10-08 22:57:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>6945652811367484677</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Responder a @zunibellarez Sí quieren que mañana suba la receta me avisan ✨🙊 #tottusperu  #xyzbca #parati #limara</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>292</v>
+      </c>
+      <c r="D68" t="n">
+        <v>24</v>
+      </c>
+      <c r="E68" t="n">
+        <v>36</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2919</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2021-03-31 03:20:20</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>6945652811367484677</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>luucorreamiranda</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@luucorreamiranda/video/6945652811367484677</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>2021-03-31 03:20:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>7028245835649387782</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Navidad Tottus #navidad #navidadenfamilia #navidad2021🎁🎄 #navidadfeliz #navidadadornos #navidadparati2021 #navidadhoyesnavidad #deconavidad #ofertasnavideñas #tottusperu #realplazapuruchuco</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>263</v>
+      </c>
+      <c r="D69" t="n">
+        <v>42</v>
+      </c>
+      <c r="E69" t="n">
+        <v>12</v>
+      </c>
+      <c r="F69" t="n">
+        <v>14600</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2021-11-08 17:03:23</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>7028245835649387782</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>klei.garnelo</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@klei.garnelo/video/7028245835649387782</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>2021-11-08 17:03:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>7007880016499313926</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>gracias 🙂  #TOTTUSPERU por el apoyo a nuestro refugio Asociacion ALVA#Parati #fyp #EnUnMinuto #paratipage #viral #Foryou #ALVA #Ayudaanimal</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>250</v>
+      </c>
+      <c r="D70" t="n">
+        <v>18</v>
+      </c>
+      <c r="E70" t="n">
+        <v>7</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1623</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2021-09-14 19:53:36</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>7007880016499313926</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>larissaazabache</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@larissaazabache/video/7007880016499313926</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>2021-09-14 19:53:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>7007880016499313926</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>gracias 🙂  #TOTTUSPERU por el apoyo a nuestro refugio Asociacion ALVA#Parati #fyp #EnUnMinuto #paratipage #viral #Foryou #ALVA #Ayudaanimal</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>250</v>
+      </c>
+      <c r="D71" t="n">
+        <v>18</v>
+      </c>
+      <c r="E71" t="n">
+        <v>7</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1623</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2021-09-14 19:53:36</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>7007880016499313926</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>larissaazabache</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@larissaazabache/video/7007880016499313926</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>2021-09-14 19:53:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>6902897476370533634</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>#parati #viral #tottusperu</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>4701</v>
+      </c>
+      <c r="D72" t="n">
+        <v>673</v>
+      </c>
+      <c r="E72" t="n">
+        <v>143</v>
+      </c>
+      <c r="F72" t="n">
+        <v>43000</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2020-12-05 22:07:45</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>6902897476370533634</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>brian.martinez93</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@brian.martinez93/video/6902897476370533634</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>2020-12-05 22:07:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>7011167157954301189</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Tottus ofertas #voiceeffects #trend #tottusperu #ofertas #liquidacion #ropadeinvierno👌🏻 #liquidacioninsuperable #liquidacioninvierno #oportunidades #dato #ahorro #ropamujerperu #casacas #blusasdemoda #top #tiktokperu🇵🇪 #realplazapuruchuco #tottus</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>231</v>
+      </c>
+      <c r="D73" t="n">
+        <v>29</v>
+      </c>
+      <c r="E73" t="n">
+        <v>5</v>
+      </c>
+      <c r="F73" t="n">
+        <v>11200</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>2021-09-23 16:29:23</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>7011167157954301189</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>klei.garnelo</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@klei.garnelo/video/7011167157954301189</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>2021-09-23 16:29:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>7059525487231651078</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>DATAZO! Sandalias en @TottusPeru ✅ #telocuentoentiktok #parati #fouryou #datazo #tottusperu #sandalias #tendencia</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>207</v>
+      </c>
+      <c r="D74" t="n">
+        <v>6</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2</v>
+      </c>
+      <c r="F74" t="n">
+        <v>20700</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2022-02-01 00:04:24</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>7059525487231651078</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>oenelle</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@oenelle/video/7059525487231651078</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>2022-02-01 00:04:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>7060638869280099590</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Datazo! Ropa deportiva en @TottusPeru de la Marina📍#telocuentoentiktok #parati #tottusperu #dato #datazo #ofertas #rebajas</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>412</v>
+      </c>
+      <c r="D75" t="n">
+        <v>10</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2</v>
+      </c>
+      <c r="F75" t="n">
+        <v>6623</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>2022-02-04 00:04:54</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>7060638869280099590</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>oenelle</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@oenelle/video/7060638869280099590</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>2022-02-04 00:04:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>6977108236545838341</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>#organizando #limpiandomicajon #tottusperu #tottus #organizacionhogar</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>196</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" t="n">
+        <v>2</v>
+      </c>
+      <c r="F76" t="n">
+        <v>11600</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2021-06-23 21:43:25</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>6977108236545838341</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>olenkaottone</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@olenkaottone/video/6977108236545838341</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>2021-06-23 21:43:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>6941763321217436933</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>IG: ELESPACIODEMAMI   #datoelespaciodemami #ofertas #ofertasperu #tottus #tottusperu #zapatos #shoes #ofertadezapatillas #ricorico #recetas</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>193</v>
+      </c>
+      <c r="D77" t="n">
+        <v>8</v>
+      </c>
+      <c r="E77" t="n">
+        <v>4</v>
+      </c>
+      <c r="F77" t="n">
+        <v>9387</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2021-03-20 15:47:05</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>6941763321217436933</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>elespaciodemami</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@elespaciodemami/video/6941763321217436933</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>2021-03-20 15:47:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>6961562753177832709</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>🚨 DATO 🚨 Productos #crueltyfree que encontré en @tottusperu ✔️ #telocuento #parati #dato #tottusperu #murana #petalfresh</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>190</v>
+      </c>
+      <c r="D78" t="n">
+        <v>12</v>
+      </c>
+      <c r="E78" t="n">
+        <v>4</v>
+      </c>
+      <c r="F78" t="n">
+        <v>7756</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>2021-05-13 00:19:00</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>6961562753177832709</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>oenelle</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@oenelle/video/6961562753177832709</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>2021-05-13 00:19:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>7047739048747732229</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>#callao #alguedas #familia #tottusperu #humor</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>188</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" t="n">
+        <v>6</v>
+      </c>
+      <c r="F79" t="n">
+        <v>6148</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>2021-12-31 05:47:02</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>7047739048747732229</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>franciahiaretalgu</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@franciahiaretalgu/video/7047739048747732229</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>2021-12-31 05:47:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>7049037158987926790</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Un trend simple en tottus 🤭 #trend #fypシ #parati #fouryoupage #siguemeytesigo🙈🥰 #vyp #tiktok #sigueme #tottus #tottusperu #compras</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>185</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>4</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1714</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2022-01-03 17:44:20</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>7049037158987926790</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>milagrosnavarro330</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@milagrosnavarro330/video/7049037158987926790</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>2022-01-03 17:44:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>7034254571622927621</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Me llevé 6 cajas de caramel macchiato 🤭 #dolcegustocafe #peru #viral #tottusperu #starbucks #oferta</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>174</v>
+      </c>
+      <c r="D81" t="n">
+        <v>16</v>
+      </c>
+      <c r="E81" t="n">
+        <v>9</v>
+      </c>
+      <c r="F81" t="n">
+        <v>9492</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2021-11-24 21:40:20</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>7034254571622927621</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>astridespinoza_</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@astridespinoza_/video/7034254571622927621</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>2021-11-24 21:40:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>7056994313846213893</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>#createforacause #tottusperu</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>173</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>13</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2591</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>2022-01-25 04:22:11</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>7056994313846213893</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>soy_sarhai</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@soy_sarhai/video/7056994313846213893</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>2022-01-25 04:22:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>6837198331433815302</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>#luzdelunatips #fashionbloger #youtuber #foryou #xyzbca #tottusperu #ofertas #ofertastottus #supermercados #limaperu2020 #cuarentena</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>1654</v>
+      </c>
+      <c r="D83" t="n">
+        <v>343</v>
+      </c>
+      <c r="E83" t="n">
+        <v>100</v>
+      </c>
+      <c r="F83" t="n">
+        <v>94100</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2020-06-11 21:01:30</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>6837198331433815302</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>luzdelunatips</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@luzdelunatips/video/6837198331433815302</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>2020-06-11 21:01:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>7023852922396069126</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Tottus🍀Real Plaza Puruchuco #tottus #tottusperu #realplazapuruchuco #ofertas #blusasdemoda #primaveraverano2022 #temporadaverano2022 #faldasjeans #botinesmujer #chunky #modamujer #trend #ahorro #tiktokperu</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>151</v>
+      </c>
+      <c r="D84" t="n">
+        <v>8</v>
+      </c>
+      <c r="E84" t="n">
+        <v>6</v>
+      </c>
+      <c r="F84" t="n">
+        <v>8564</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>2021-10-27 20:56:38</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>7023852922396069126</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>klei.garnelo</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@klei.garnelo/video/7023852922396069126</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>2021-10-27 20:56:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>7038974049174736133</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>VAMOS A VER QUIEN TIENE LOS MEJORES PRECIOS #plazaveaperu #tottusperu #comedias #humor #paratii #tiktok</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>1373</v>
+      </c>
+      <c r="D85" t="n">
+        <v>4</v>
+      </c>
+      <c r="E85" t="n">
+        <v>37</v>
+      </c>
+      <c r="F85" t="n">
+        <v>13200</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>2021-12-07 14:54:20</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>7038974049174736133</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>la_tia_yuca</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@la_tia_yuca/video/7038974049174736133</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>2021-12-07 14:54:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>6984810099319524614</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>#viralbebe #mamaehijo #productostottus #tottus #comprastottus #tottusperu #tottuscompras #limpiezabebe #utilesdeaseobebe #comprasviral #viralbebe</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>135</v>
+      </c>
+      <c r="D86" t="n">
+        <v>4</v>
+      </c>
+      <c r="E86" t="n">
+        <v>10</v>
+      </c>
+      <c r="F86" t="n">
+        <v>6061</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2021-07-14 15:50:34</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>6984810099319524614</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>veritoppp</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@veritoppp/video/6984810099319524614</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>2021-07-14 15:50:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>7023943164092222725</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Haciendo Huevadas en Tottus 🤣🤣#mono #gorila #comedia #comedy #tottusperu #fyp</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>132</v>
+      </c>
+      <c r="D87" t="n">
+        <v>6</v>
+      </c>
+      <c r="E87" t="n">
+        <v>13</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2908</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2021-10-28 02:46:49</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>7023943164092222725</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>poolysusqui1996</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@poolysusqui1996/video/7023943164092222725</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>2021-10-28 02:46:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>7069157855647091973</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Encontramos estos cuadernos anillados de #Marvel y #StarWars en @TottusPeru son de la marca #Minerva 🙌🏻 Síguenos en IG👉🏻 @unaparejageek #unboxing #peru #tottus #tottusperu #viral #fyp #fypシ #foryou #foryoupage #xyzbca #avengers #avengersendgame #obiwan #kenobi #darthvader #lukeskywalker #geek #friki #tailoy #reels #spiderman #spidermannowayhome #doctorstrange #scarletwitch</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>244</v>
+      </c>
+      <c r="D88" t="n">
+        <v>8</v>
+      </c>
+      <c r="E88" t="n">
+        <v>14</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2082</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>2022-02-26 23:02:55</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>7069157855647091973</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>unaparejageek</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@unaparejageek/video/7069157855647091973</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>2022-02-26 23:02:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>7054906655556898054</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>👙💜 #bikinisperu #tottusperu #datosdemoda #fypperu #paratiperu #followmeperu #fashiontips #paratiperu #peru2022</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>129</v>
+      </c>
+      <c r="D89" t="n">
+        <v>8</v>
+      </c>
+      <c r="E89" t="n">
+        <v>6</v>
+      </c>
+      <c r="F89" t="n">
+        <v>4025</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2022-01-19 13:20:59</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>7054906655556898054</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>cat.thedesigner</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cat.thedesigner/video/7054906655556898054</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>2022-01-19 13:20:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>6992763715741355269</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Son super fácil de hacer 🥰 #helados #tottus #tottusperu #lima #perú #peruano #icecream #venezolanaenperu #parati</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>128</v>
+      </c>
+      <c r="D90" t="n">
+        <v>4</v>
+      </c>
+      <c r="E90" t="n">
+        <v>5</v>
+      </c>
+      <c r="F90" t="n">
+        <v>2018</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2021-08-05 02:14:38</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>6992763715741355269</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>nadiacarolinee_</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nadiacarolinee_/video/6992763715741355269</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>2021-08-05 02:14:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>7061648206274333957</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Gracias a mi @rosel.fitcoach por el dato ❤ No se olviden de usar bloqueador chiquis! #foryouperu #peru2022 #tottusperu #plazavea #paratiperu #followme</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>128</v>
+      </c>
+      <c r="D91" t="n">
+        <v>3</v>
+      </c>
+      <c r="E91" t="n">
+        <v>4</v>
+      </c>
+      <c r="F91" t="n">
+        <v>3014</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>2022-02-06 17:21:38</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>7061648206274333957</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>cat.thedesigner</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cat.thedesigner/video/7061648206274333957</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>2022-02-06 17:21:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>7042476262517984518</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>#vacaciones #piscoperuano🇵🇪 #tottusperu #fyp #lentejas #Peru</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>121</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>9</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2496</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>2021-12-17 01:24:42</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>7042476262517984518</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>luce.93</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@luce.93/video/7042476262517984518</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>2021-12-17 01:24:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>6921101803073391877</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Por estas cosas la cantidad de fallecidos crecen#megaplaza #indecopi #tottusperu</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>2394</v>
+      </c>
+      <c r="D93" t="n">
+        <v>170</v>
+      </c>
+      <c r="E93" t="n">
+        <v>409</v>
+      </c>
+      <c r="F93" t="n">
+        <v>145900</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>2021-01-23 23:30:02</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>6921101803073391877</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>vivianricrazuta</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@vivianricrazuta/video/6921101803073391877</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>2021-01-23 23:30:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>7014146267320225029</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Los extraño a todos 🥺😞♥️ #tottus #tottusperu #limaperu #migiu #peru🇵🇪 #parati #rostizate</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>109</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1</v>
+      </c>
+      <c r="E94" t="n">
+        <v>4</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2941</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>2021-10-01 17:09:51</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>7014146267320225029</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>.arron316</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@.arron316/video/7014146267320225029</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>2021-10-01 17:09:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>7013197234246405382</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Mi hamburguesa :'c #tottusperu</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>216</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>21000</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>2021-09-29 03:47:09</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>7013197234246405382</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>alessandra109516</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alessandra109516/video/7013197234246405382</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>2021-09-29 03:47:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>6997995662042336518</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Responder a @yossbay24 Comparación entre tiendas de la misma empresa. Espero pronto ir a otras 👀 #tottusperu #preciouno #ofertasperu #tiktokperu</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>98</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" t="n">
+        <v>8</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1911</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>2021-08-19 04:37:17</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>6997995662042336518</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>cholojorge</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cholojorge/video/6997995662042336518</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>2021-08-19 04:37:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>6934706572555783430</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Responder a @daysiromero4 en el dolor hermanos  #cajeros #cajas  #supermercado  #tottusperu  #plazavea  #wongperu</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="n">
+        <v>40</v>
+      </c>
+      <c r="E97" t="n">
+        <v>14</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1912</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>2021-03-01 15:23:30</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>6934706572555783430</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>diegoruiz1923</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@diegoruiz1923/video/6934706572555783430</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>2021-03-01 15:23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>6899592834412858626</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Ofertas para niños&amp;adultos #liquidaciones #ofertasperu #ofertasimperdibles #parati #fyp #foryoupage #buscandoofertas #tottusperu #plazaveaperu #viral</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>902</v>
+      </c>
+      <c r="D98" t="n">
+        <v>130</v>
+      </c>
+      <c r="E98" t="n">
+        <v>48</v>
+      </c>
+      <c r="F98" t="n">
+        <v>25300</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>2020-11-27 00:24:05</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>6899592834412858626</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>claudiacrissel</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@claudiacrissel/video/6899592834412858626</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>2020-11-27 00:24:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>6905636970232368390</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>#pegar un video de @joeljajaj #miraflores #joker #humor #tiktoker #tiktokperu #foryoupage #fyp #parati #tottusperu</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>84</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1</v>
+      </c>
+      <c r="E99" t="n">
+        <v>4</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2638</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>2020-12-13 07:19:16</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>6905636970232368390</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>theycallmejamonbro</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@theycallmejamonbro/video/6905636970232368390</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>2020-12-13 07:19:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>6925996537596218630</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>PAREMOS CON ESTO NUNCA MAS HOMOFOBIA#discriminacion #tottusperu #mujer #trans#homofobia @suselparedes @leylaaugusta @magalymedinav @andreallosaoficial</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>83</v>
+      </c>
+      <c r="D100" t="n">
+        <v>2</v>
+      </c>
+      <c r="E100" t="n">
+        <v>19</v>
+      </c>
+      <c r="F100" t="n">
+        <v>5900</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>2021-02-06 04:04:12</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>6925996537596218630</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>jairsitooysusamigos</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@jairsitooysusamigos/video/6925996537596218630</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>2021-02-06 04:04:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>7050557181707455750</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>#tottusperu 💚💚💚 😏 ignoren los ojos 😅😅😅😂💚 #peruviantiktoker</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>80</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>5</v>
+      </c>
+      <c r="F101" t="n">
+        <v>560</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>2022-01-07 20:02:47</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>7050557181707455750</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>juliochavezpere2</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@juliochavezpere2/video/7050557181707455750</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>2022-01-07 20:02:47</t>
         </is>
       </c>
     </row>
